--- a/RC_Rendus_Compet/ESF.xlsx
+++ b/RC_Rendus_Compet/ESF.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thibaultnouvellon/Documents_perso/Centrale_lyon/EPSA/Github /ELIZ-2021/RC_Rendus_Compet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F10A79-AFE9-FD40-B11C-57E37F57CFD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C6F6F0-3B84-4F42-B649-E67CE9124B61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="HLfRkIHHOJw6IJyvuGwuihynZPQG3FcojXeDXiRlN3qI6u8uztyLnUD5yLGYCSOgP+yhIbLqzms2Gw/zG3BEjQ==" workbookSaltValue="1KvgPn5WdQ/hue/TjtXhTA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21800" windowHeight="13880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="10" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="424">
   <si>
     <t>Instructions</t>
   </si>
@@ -1388,9 +1388,6 @@
   </si>
   <si>
     <t>2,5</t>
-  </si>
-  <si>
-    <t>Tyva energie</t>
   </si>
   <si>
     <t>no</t>
@@ -7863,34 +7860,34 @@
         <v>TE Connectivity HSC100100RJ</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H56" s="83" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I56" s="83"/>
       <c r="J56" s="83"/>
       <c r="K56" s="79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L56" s="79"/>
       <c r="M56" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N56" s="30" t="str">
         <f>IF(COUNTBLANK(B56:M56)=12,IncompleteText,IF(COUNTBLANK(B56:M56)=3,OKText,ErrorText))</f>
@@ -7912,10 +7909,10 @@
         <v>ARCOL HS100 4K7 F</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D57" s="4">
         <v>1900</v>
@@ -7935,11 +7932,11 @@
       <c r="I57" s="83"/>
       <c r="J57" s="83"/>
       <c r="K57" s="85" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L57" s="86"/>
       <c r="M57" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N57" s="30" t="str">
         <f>IF(COUNTBLANK(B57:M57)=12,"",IF(COUNTBLANK(B57:M57)=3,OKText,ErrorText))</f>
@@ -7959,10 +7956,10 @@
         <v>TE Connectivity ROX7J15K</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D58" s="4">
         <v>750</v>
@@ -7977,12 +7974,12 @@
         <v>7</v>
       </c>
       <c r="H58" s="80" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I58" s="81"/>
       <c r="J58" s="82"/>
       <c r="K58" s="79" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L58" s="79"/>
       <c r="M58" s="32" t="s">
@@ -8164,10 +8161,10 @@
         <v>Littelfuse DCNLEV50-BAN</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>406</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>407</v>
       </c>
       <c r="D65" s="4">
         <v>750</v>
@@ -8179,11 +8176,11 @@
         <v>250</v>
       </c>
       <c r="G65" s="79" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H65" s="79"/>
       <c r="I65" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J65" s="30" t="str">
         <f>IF(COUNTBLANK(B65:I65)=8,IncompleteText,IF(COUNTBLANK(B65:I65)=1,OKText,ErrorText))</f>
@@ -8205,10 +8202,10 @@
         <v>Littelfuse DCNLEV50-BAS</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D66" s="4">
         <v>750</v>
@@ -8220,11 +8217,11 @@
         <v>250</v>
       </c>
       <c r="G66" s="79" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H66" s="79"/>
       <c r="I66" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J66" s="30" t="str">
         <f>IF(COUNTBLANK(B66:I66)=8,"",IF(COUNTBLANK(B66:I66)=1,OKText,ErrorText))</f>
@@ -8244,10 +8241,10 @@
         <v>TE Connectivity LEV200H4ANA</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D67" s="4">
         <v>900</v>
@@ -8259,7 +8256,7 @@
         <v>650</v>
       </c>
       <c r="G67" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H67" s="79"/>
       <c r="I67" s="48" t="s">
@@ -8399,10 +8396,10 @@
         <v>Amphenol PL00X-301-90M10</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>415</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>416</v>
       </c>
       <c r="D73" s="4">
         <v>1000</v>
@@ -8414,11 +8411,11 @@
         <v>50</v>
       </c>
       <c r="G73" s="79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H73" s="79"/>
       <c r="I73" s="48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J73" s="30" t="str">
         <f>IF(COUNTBLANK(B73:I73)=8,IncompleteText,IF(COUNTBLANK(B73:I73)=1,OKText,ErrorText))</f>
@@ -10497,7 +10494,7 @@
       <c r="T32" s="87"/>
       <c r="U32" s="88"/>
       <c r="V32" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W32" s="30" t="e">
         <f t="shared" si="1"/>
@@ -10517,7 +10514,7 @@
       <c r="H33" s="87"/>
       <c r="I33" s="88"/>
       <c r="J33" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K33" s="30" t="e">
         <f t="shared" si="0"/>
@@ -10767,7 +10764,7 @@
       <c r="T39" s="87"/>
       <c r="U39" s="88"/>
       <c r="V39" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W39" s="30" t="e">
         <f t="shared" si="1"/>
@@ -10845,7 +10842,7 @@
       <c r="T41" s="87"/>
       <c r="U41" s="88"/>
       <c r="V41" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W41" s="40" t="e">
         <f>IF(ISBLANK(#REF!),IncompleteText, IF(#REF!, OKText, ErrorText))</f>
@@ -11234,8 +11231,8 @@
   <dimension ref="A1:BA90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11422,7 +11419,7 @@
       <c r="S9" s="87"/>
       <c r="T9" s="88"/>
       <c r="U9" s="80" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V9" s="82"/>
       <c r="W9" s="30" t="str">
@@ -11543,9 +11540,7 @@
       <c r="K11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="62" t="s">
-        <v>378</v>
-      </c>
+      <c r="L11" s="62"/>
       <c r="M11" s="62"/>
       <c r="N11" s="23" t="s">
         <v>23</v>
@@ -11556,7 +11551,7 @@
       <c r="P11" s="62"/>
       <c r="Q11" s="30" t="str">
         <f>IF(O10="Purchased", IF(OR(ISBLANK(L11), ISBLANK(O11)), IncompleteText, OKText), "")</f>
-        <v>OK</v>
+        <v>BLANK</v>
       </c>
       <c r="R11" s="120" t="s">
         <v>127</v>
@@ -11796,7 +11791,7 @@
       <c r="S14" s="87"/>
       <c r="T14" s="88"/>
       <c r="U14" s="80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="V14" s="82"/>
       <c r="W14" s="30" t="str">
@@ -14784,7 +14779,7 @@
       <c r="B3" s="87"/>
       <c r="C3" s="88"/>
       <c r="D3" s="105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E3" s="106"/>
       <c r="F3" s="30" t="str">
@@ -14797,7 +14792,7 @@
       <c r="H3" s="87"/>
       <c r="I3" s="88"/>
       <c r="J3" s="105" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K3" s="106"/>
       <c r="L3" s="30" t="str">
@@ -14810,7 +14805,7 @@
       <c r="N3" s="87"/>
       <c r="O3" s="88"/>
       <c r="P3" s="105" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q3" s="106"/>
       <c r="R3" s="30" t="str">
@@ -15114,7 +15109,7 @@
       <c r="B11" s="87"/>
       <c r="C11" s="88"/>
       <c r="D11" s="62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="30" t="str">
@@ -15181,7 +15176,7 @@
       <c r="H13" s="87"/>
       <c r="I13" s="88"/>
       <c r="J13" s="62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K13" s="62"/>
       <c r="L13" s="30" t="str">
@@ -15323,7 +15318,7 @@
       <c r="B20" s="87"/>
       <c r="C20" s="88"/>
       <c r="D20" s="62" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E20" s="62"/>
       <c r="F20" s="30" t="str">
@@ -15693,7 +15688,7 @@
       <c r="B4" s="87"/>
       <c r="C4" s="87"/>
       <c r="D4" s="62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="30" t="str">
@@ -15735,7 +15730,7 @@
       <c r="B6" s="135"/>
       <c r="C6" s="88"/>
       <c r="D6" s="49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>27</v>
@@ -15759,7 +15754,7 @@
       <c r="B7" s="135"/>
       <c r="C7" s="88"/>
       <c r="D7" s="49" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>31</v>
@@ -16456,7 +16451,7 @@
       <c r="N39" s="87"/>
       <c r="O39" s="88"/>
       <c r="P39" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q39" s="30" t="e">
         <f t="shared" si="2"/>
@@ -18923,20 +18918,20 @@
       </c>
       <c r="I6" s="89"/>
       <c r="J6" s="62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K6" s="62"/>
       <c r="L6" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
@@ -18973,11 +18968,11 @@
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K7" s="62"/>
       <c r="L7" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -19264,7 +19259,7 @@
       <c r="B3" s="87"/>
       <c r="C3" s="88"/>
       <c r="D3" s="105" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E3" s="106"/>
       <c r="F3" s="30" t="str">
@@ -19277,7 +19272,7 @@
       <c r="H3" s="87"/>
       <c r="I3" s="88"/>
       <c r="J3" s="105" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K3" s="106"/>
       <c r="L3" s="30" t="str">
@@ -19292,7 +19287,7 @@
       <c r="B4" s="87"/>
       <c r="C4" s="87"/>
       <c r="D4" s="62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="30" t="str">
@@ -19305,7 +19300,7 @@
       <c r="H4" s="87"/>
       <c r="I4" s="87"/>
       <c r="J4" s="62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K4" s="62"/>
       <c r="L4" s="30" t="str">
@@ -19320,7 +19315,7 @@
       <c r="B5" s="87"/>
       <c r="C5" s="88"/>
       <c r="D5" s="79" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="30" t="str">
@@ -19333,7 +19328,7 @@
       <c r="H5" s="87"/>
       <c r="I5" s="88"/>
       <c r="J5" s="79" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K5" s="79"/>
       <c r="L5" s="30" t="str">
